--- a/SampleData/DimCategory.xlsx
+++ b/SampleData/DimCategory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -23,82 +23,64 @@
     <t>CATEGORY_NAME</t>
   </si>
   <si>
+    <t>ione</t>
+  </si>
+  <si>
+    <t>Kinh doanh</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Pháp luật</t>
+  </si>
+  <si>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>ngoisao.net</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
     <t>Thời sự</t>
   </si>
   <si>
+    <t>Cộng đồng</t>
+  </si>
+  <si>
+    <t>nhacso.net</t>
+  </si>
+  <si>
+    <t>Đời sống</t>
+  </si>
+  <si>
+    <t>Giải trí</t>
+  </si>
+  <si>
+    <t>Cười</t>
+  </si>
+  <si>
+    <t>Số hóa</t>
+  </si>
+  <si>
+    <t>Tâm sự</t>
+  </si>
+  <si>
+    <t>vitalk.vn</t>
+  </si>
+  <si>
+    <t>Thể thao</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
     <t>Thế giới</t>
   </si>
   <si>
-    <t>Kinh doanh</t>
-  </si>
-  <si>
-    <t>Giải trí</t>
-  </si>
-  <si>
-    <t>Thể thao</t>
-  </si>
-  <si>
-    <t>Pháp luật</t>
-  </si>
-  <si>
-    <t>Gia đình</t>
-  </si>
-  <si>
-    <t>Du lịch</t>
-  </si>
-  <si>
-    <t>Khoa học</t>
-  </si>
-  <si>
-    <t>Số hóa</t>
-  </si>
-  <si>
     <t>Xe</t>
-  </si>
-  <si>
-    <t>Cộng đồng</t>
-  </si>
-  <si>
-    <t>Tâm sự</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Cười</t>
-  </si>
-  <si>
-    <t>Rao vặt</t>
-  </si>
-  <si>
-    <t>ngoisao.net</t>
-  </si>
-  <si>
-    <t>nhacso.net</t>
-  </si>
-  <si>
-    <t>vitalk.vn</t>
-  </si>
-  <si>
-    <t>ione</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>sendo.vn</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>Đời sống</t>
-  </si>
-  <si>
-    <t>Tin tức</t>
-  </si>
-  <si>
-    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -113,6 +95,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -172,12 +155,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -212,219 +199,171 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>27</v>
+      <c r="A2" s="2" t="n">
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>28</v>
+      <c r="A3" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>29</v>
+      <c r="A4" s="2" t="n">
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>30</v>
+      <c r="A5" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>31</v>
+      <c r="A6" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>32</v>
+      <c r="A7" s="2" t="n">
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>33</v>
+      <c r="A8" s="2" t="n">
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>34</v>
+      <c r="A9" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>35</v>
+      <c r="A10" s="2" t="n">
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>36</v>
+      <c r="A11" s="2" t="n">
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>37</v>
+      <c r="A12" s="2" t="n">
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>38</v>
+      <c r="A13" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>39</v>
+      <c r="A14" s="2" t="n">
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>40</v>
+      <c r="A15" s="2" t="n">
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>41</v>
+      <c r="A16" s="2" t="n">
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>42</v>
+      <c r="A17" s="2" t="n">
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>43</v>
+      <c r="A18" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>44</v>
+      <c r="A19" s="2" t="n">
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>45</v>
+      <c r="A20" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>46</v>
+      <c r="A21" s="2" t="n">
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData/DimCategory.xlsx
+++ b/SampleData/DimCategory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -23,64 +23,82 @@
     <t>CATEGORY_NAME</t>
   </si>
   <si>
+    <t>Thời sự</t>
+  </si>
+  <si>
+    <t>Thế giới</t>
+  </si>
+  <si>
+    <t>Kinh doanh</t>
+  </si>
+  <si>
+    <t>Giải trí</t>
+  </si>
+  <si>
+    <t>Thể thao</t>
+  </si>
+  <si>
+    <t>Pháp luật</t>
+  </si>
+  <si>
+    <t>Gia đình</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>Số hóa</t>
+  </si>
+  <si>
+    <t>Xe</t>
+  </si>
+  <si>
+    <t>Cộng đồng</t>
+  </si>
+  <si>
+    <t>Tâm sự</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Cười</t>
+  </si>
+  <si>
+    <t>Rao vặt</t>
+  </si>
+  <si>
+    <t>ngoisao.net</t>
+  </si>
+  <si>
+    <t>nhacso.net</t>
+  </si>
+  <si>
+    <t>vitalk.vn</t>
+  </si>
+  <si>
     <t>ione</t>
   </si>
   <si>
-    <t>Kinh doanh</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>sendo.vn</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Đời sống</t>
+  </si>
+  <si>
+    <t>Tin tức</t>
   </si>
   <si>
     <t>Others</t>
-  </si>
-  <si>
-    <t>Pháp luật</t>
-  </si>
-  <si>
-    <t>Khoa học</t>
-  </si>
-  <si>
-    <t>ngoisao.net</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>Thời sự</t>
-  </si>
-  <si>
-    <t>Cộng đồng</t>
-  </si>
-  <si>
-    <t>nhacso.net</t>
-  </si>
-  <si>
-    <t>Đời sống</t>
-  </si>
-  <si>
-    <t>Giải trí</t>
-  </si>
-  <si>
-    <t>Cười</t>
-  </si>
-  <si>
-    <t>Số hóa</t>
-  </si>
-  <si>
-    <t>Tâm sự</t>
-  </si>
-  <si>
-    <t>vitalk.vn</t>
-  </si>
-  <si>
-    <t>Thể thao</t>
-  </si>
-  <si>
-    <t>Du lịch</t>
-  </si>
-  <si>
-    <t>Thế giới</t>
-  </si>
-  <si>
-    <t>Xe</t>
   </si>
 </sst>
 </file>
@@ -185,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -208,7 +226,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -216,7 +234,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -224,7 +242,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -232,7 +250,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -240,7 +258,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -248,7 +266,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -256,7 +274,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
@@ -264,7 +282,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -272,7 +290,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -280,7 +298,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>11</v>
@@ -288,7 +306,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
@@ -296,7 +314,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
@@ -304,7 +322,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
@@ -312,7 +330,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
@@ -320,7 +338,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -328,7 +346,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>17</v>
@@ -336,7 +354,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
@@ -344,7 +362,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>19</v>
@@ -352,7 +370,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -360,10 +378,58 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
